--- a/talklist.xlsx
+++ b/talklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugiyamasunao/Documents/homepage/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051CD2BA-958D-5A46-AE7B-8B9882EE2FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1530BC-7251-B94A-8598-ECEE273B1A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{7FB799C2-0D94-9244-8D4F-971F4EC174B0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="119">
   <si>
     <t>title</t>
   </si>
@@ -386,6 +386,12 @@
   </si>
   <si>
     <t>2022 Autumn Annual Meeting of ASJ</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>Ryuichi Takahashi</t>
   </si>
 </sst>
 </file>
@@ -769,16 +775,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBDEDC7-E444-7641-B253-908821326F27}">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S24" sqref="S24"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="116.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="114.6640625" customWidth="1"/>
     <col min="3" max="5" width="22.33203125" customWidth="1"/>
     <col min="6" max="6" width="67.33203125" customWidth="1"/>
@@ -788,10 +794,10 @@
     <col min="14" max="14" width="20.6640625" customWidth="1"/>
     <col min="15" max="15" width="60.33203125" customWidth="1"/>
     <col min="16" max="16" width="28.1640625" customWidth="1"/>
-    <col min="17" max="17" width="90.33203125" customWidth="1"/>
+    <col min="17" max="17" width="90.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -843,8 +849,11 @@
       <c r="Q1" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -882,8 +891,9 @@
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -911,8 +921,11 @@
       <c r="O3" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -950,8 +963,11 @@
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -977,7 +993,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1011,8 +1027,9 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1043,8 +1060,11 @@
       <c r="O7" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -1078,8 +1098,9 @@
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1101,9 +1122,12 @@
       <c r="K9">
         <v>1</v>
       </c>
+      <c r="N9" t="s">
+        <v>118</v>
+      </c>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1137,8 +1161,11 @@
       <c r="O10" s="3"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1169,8 +1196,11 @@
       <c r="O11" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -1199,17 +1229,18 @@
         <v>1</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="1">
-        <v>1</v>
-      </c>
+      <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
         <v>53</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -1241,7 +1272,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
@@ -1281,8 +1312,11 @@
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -1313,8 +1347,11 @@
       <c r="O15" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>76</v>
       </c>
@@ -1343,17 +1380,18 @@
         <v>1</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="1">
-        <v>1</v>
-      </c>
+      <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
         <v>78</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -1378,17 +1416,17 @@
       <c r="K17">
         <v>1</v>
       </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
       <c r="N17" t="s">
         <v>69</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -1426,8 +1464,11 @@
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -1459,7 +1500,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>82</v>
       </c>
@@ -1497,8 +1538,11 @@
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -1529,8 +1573,11 @@
       <c r="O21" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>95</v>
       </c>
@@ -1568,8 +1615,11 @@
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>100</v>
       </c>
@@ -1603,8 +1653,11 @@
       <c r="O23" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>113</v>
       </c>
@@ -1640,11 +1693,14 @@
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1662,11 +1718,12 @@
       <c r="O26" s="3"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1684,11 +1741,12 @@
       <c r="O28" s="3"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="O29" s="4"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1706,11 +1764,12 @@
       <c r="O30" s="3"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1728,11 +1787,12 @@
       <c r="O32" s="3"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="O33" s="4"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1750,6 +1810,7 @@
       <c r="O34" s="3"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q23">
